--- a/exam_excel.xlsx
+++ b/exam_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\302812\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3C9476E-0F96-45B1-9EBF-BB0BBA8943A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7720D442-45B4-4A05-B827-D8D5F7BCCD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{AEC106D7-25CB-467F-A00D-EB6A6C181E8D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{AEC106D7-25CB-467F-A00D-EB6A6C181E8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>Test case Results</t>
   </si>
   <si>
-    <t>ScreenShot</t>
-  </si>
-  <si>
     <t>Git Link</t>
   </si>
   <si>
@@ -655,6 +652,9 @@
   </si>
   <si>
     <t>TC_11:Pass</t>
+  </si>
+  <si>
+    <t>https://github.com/kavyarajp-code/Exam</t>
   </si>
 </sst>
 </file>
@@ -1117,34 +1117,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1175,18 +1175,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
@@ -1194,76 +1194,76 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="44.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +1291,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -1311,121 +1311,121 @@
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1436,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4DA271-8F49-445E-B5A2-7BEF3D50A524}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1454,11 +1454,10 @@
     <col min="8" max="8" width="27.08984375" customWidth="1"/>
     <col min="9" max="9" width="31.81640625" customWidth="1"/>
     <col min="10" max="10" width="26.90625" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" customWidth="1"/>
-    <col min="12" max="12" width="16.54296875" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -1492,314 +1491,314 @@
       <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
         <v>83</v>
       </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
         <v>90</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
         <v>96</v>
       </c>
-      <c r="I7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>99</v>
       </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
         <v>106</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>107</v>
       </c>
-      <c r="I9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>112</v>
       </c>
-      <c r="I10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
         <v>113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" t="s">
-        <v>114</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
         <v>115</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>116</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>117</v>
       </c>
-      <c r="I12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
         <v>106</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>107</v>
-      </c>
-      <c r="I16" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1807,42 +1806,42 @@
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" t="s">
         <v>125</v>
-      </c>
-      <c r="I17" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1850,13 +1849,13 @@
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1864,16 +1863,16 @@
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" t="s">
         <v>129</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>130</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>131</v>
-      </c>
-      <c r="I20" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1881,42 +1880,42 @@
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" t="s">
         <v>125</v>
-      </c>
-      <c r="I21" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1924,13 +1923,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1938,16 +1937,16 @@
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" t="s">
         <v>138</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>139</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>140</v>
-      </c>
-      <c r="I24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -1955,16 +1954,16 @@
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -1972,39 +1971,39 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" t="s">
         <v>146</v>
-      </c>
-      <c r="I26" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -2012,13 +2011,13 @@
         <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -2026,16 +2025,16 @@
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" t="s">
         <v>138</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>139</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>140</v>
-      </c>
-      <c r="I29" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -2043,16 +2042,16 @@
         <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -2060,39 +2059,39 @@
         <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" t="s">
         <v>155</v>
-      </c>
-      <c r="D32" t="s">
-        <v>156</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -2100,16 +2099,16 @@
         <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" t="s">
         <v>158</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>159</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>160</v>
-      </c>
-      <c r="I33" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -2117,42 +2116,42 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H34" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34" t="s">
         <v>164</v>
-      </c>
-      <c r="I34" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" t="s">
         <v>167</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" t="s">
-        <v>168</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -2160,16 +2159,16 @@
         <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" t="s">
         <v>169</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>170</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>171</v>
-      </c>
-      <c r="I36" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -2177,36 +2176,36 @@
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H37" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37" t="s">
         <v>164</v>
-      </c>
-      <c r="I37" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
         <v>173</v>
       </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>174</v>
-      </c>
-      <c r="D38" t="s">
-        <v>175</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2214,13 +2213,13 @@
         <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" t="s">
         <v>177</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>178</v>
-      </c>
-      <c r="I39" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2231,6 +2230,7 @@
     <hyperlink ref="G30" r:id="rId4" xr:uid="{4D0FD634-B37C-4EA6-9116-D262A9AE6B3C}"/>
     <hyperlink ref="H30" r:id="rId5" xr:uid="{02B43384-6504-419A-9C67-6BECFAF469C0}"/>
     <hyperlink ref="I30" r:id="rId6" xr:uid="{0CAC2871-F7B5-46F8-A03D-682E18E7DE33}"/>
+    <hyperlink ref="K2" r:id="rId7" xr:uid="{8A9BBBE6-FE6F-4738-B3B6-ACF6DB23F074}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2240,7 +2240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0823BA-D3E7-4EFA-9796-89E0733AD667}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -2282,25 +2282,25 @@
     </row>
     <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
         <v>180</v>
       </c>
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
       <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2340,58 +2340,58 @@
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
       <c r="C2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
